--- a/example_data/Summary/during/Averages by Sample/Avg AUC_during_.xlsx
+++ b/example_data/Summary/during/Averages by Sample/Avg AUC_during_.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,60 +528,75 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Animal ID_Event 8</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8_baseline</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>Animal ID_Event 9</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Event 9_baseline</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Event 9</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Group 1_baseline</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Group 1</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 2</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Group 2_baseline</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Group 2</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 3</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Group 3_baseline</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Group 3</t>
         </is>
@@ -590,295 +605,967 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.096002142861608</v>
+        <v>0.7605284227376565</v>
       </c>
       <c r="C2" t="n">
-        <v>1.218479149126158</v>
+        <v>0.616424036352798</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.051691663888638</v>
+        <v>0.7975234675083278</v>
       </c>
       <c r="F2" t="n">
-        <v>0.928791243406624</v>
+        <v>0.6412606637120108</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.319721520624042</v>
+        <v>0.9366502420383592</v>
       </c>
       <c r="I2" t="n">
-        <v>2.881557281103781</v>
+        <v>0.9756513267953465</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1.578794778551057</v>
+        <v>0.6209925300803147</v>
       </c>
       <c r="L2" t="n">
-        <v>1.562583816644443</v>
+        <v>1.002418200259379</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.108587192086075</v>
+        <v>0.4804863904969223</v>
       </c>
       <c r="O2" t="n">
-        <v>2.157091677038355</v>
+        <v>1.77939091621723</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.6365571952209993</v>
+        <v>0.8762720284335279</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7297532356640544</v>
+        <v>1.009022201993768</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>2.732336941463251</v>
+        <v>1.00109423384369</v>
       </c>
       <c r="U2" t="n">
-        <v>2.511254060124048</v>
+        <v>1.064790960724102</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>0.6365571952209993</v>
+        <v>0.7041476003250404</v>
       </c>
       <c r="X2" t="n">
-        <v>0.7297532356640544</v>
+        <v>0.9828891238073982</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Z2" t="n">
-        <v>0.6365571952209993</v>
+        <v>0.7423846008048116</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7297532356640544</v>
+        <v>0.9703712311578444</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>1.096002142861608</v>
+        <v>0.8231499501760828</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.218479149126158</v>
+        <v>0.9586501420035194</v>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.7627046018418138</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.6178850144327518</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.004083503797176</v>
+        <v>1.095204579739841</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9734671265249246</v>
+        <v>0.9997772709659409</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4448941560569127</v>
+        <v>0.2766345804017689</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4964262537040356</v>
+        <v>0.2825850098727873</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.4603643822518552</v>
+        <v>1.166018175068827</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5633523456764057</v>
+        <v>2.302985331774404</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.4827904469796555</v>
+        <v>1.222566655739977</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4787688248144926</v>
+        <v>1.516230422887419</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.7015218925882551</v>
+        <v>0.6142011191885575</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3449369842857267</v>
+        <v>3.519570656928341</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.056151531867789</v>
+        <v>0.1489722377740139</v>
       </c>
       <c r="R3" t="n">
-        <v>1.097797263072214</v>
+        <v>0.2072129218776262</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>1.056151531867789</v>
+        <v>1.485290530985758</v>
       </c>
       <c r="X3" t="n">
-        <v>1.097797263072214</v>
+        <v>1.817356850824974</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="Z3" t="n">
-        <v>1.056151531867789</v>
+        <v>1.303161849449814</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.097797263072214</v>
+        <v>1.517552285913086</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>1.035822277191484</v>
+        <v>1.201926486648062</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.9436832044460575</v>
+        <v>1.849907847047786</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.095204579739841</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.9997772709659409</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4603709979973615</v>
+        <v>1.973793949862442</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5656742505473252</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.6282894862415</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.243268190950981</v>
+        <v>2.15744650189113</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4673958489835343</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4740246079188785</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2.082488954030263</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.508984683539125</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1.814566295432518</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.789522105515316</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>1.361302457631033</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.233034207023127</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>1.773724663854376</v>
+        <v>1.935810425334547</v>
       </c>
       <c r="X4" t="n">
-        <v>1.577618912168128</v>
+        <v>1.752110623992288</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Z4" t="n">
-        <v>2.395048186684074</v>
+        <v>1.930612862015612</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.456144082777755</v>
+        <v>1.792489038227559</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>0.4474736297136542</v>
+        <v>2.017294850575733</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.5079675865112505</v>
+        <v>1.676932978302427</v>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.973793949862442</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2.15744650189113</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2270209614097478</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2504527514066104</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1348381893243466</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1954248081109609</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3575679995993427</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3753033556049298</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2986446722453263</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3314898313568945</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4368929383443896</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.9079406030880044</v>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>0.4833895272379326</v>
+        <v>0.307122739974981</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4677850609218883</v>
+        <v>0.2981772300053931</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>0.4603643822518552</v>
+        <v>0.338187600780034</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5633523456764057</v>
+        <v>0.36011112118047</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.3672568625003321</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.371312244474282</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.2456260685317557</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.2625023483314267</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3537465734447664</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4217352570663508</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1.815043994540831</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.696508666552095</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.3939287241172265</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3995121356202378</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.4350962756507137</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4922339345953787</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>0.3998305984851311</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.000610977292766</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>0.4966376946212915</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.4434695857859737</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.4249674915060176</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.4288123579633246</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.4229526012059699</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.4150243561736482</v>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.3531289982457905</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.427927378931919</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1732542286001614</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1697531577702091</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4077129204297452</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.396495635252434</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1906846562972664</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1991384927654242</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1851197181795233</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2230547372190517</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1409073775276355</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.5268630608620113</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>0.3031108984018849</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.1919992457912575</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.1906105418654581</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.1997898580005287</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.1906846562972664</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.1991384927654242</v>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.1668515553875256</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.1740317661603344</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.841459645040297</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.670743931919643</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3.21044181047498</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.125046441063506</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>2.487614583469459</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.302885081063969</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>1.907131201069659</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6.315977660629615</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="W8" t="n">
+        <v>0.3854283691865111</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.5411398331555273</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="Z8" t="n">
+        <v>3.120472937678542</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3.073730402529915</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>3.21044181047498</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>3.125046441063506</v>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="AF8" t="n">
+        <v>1.821647907165697</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1.690067482893982</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4221133173730127</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4401223678260494</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3194007363643648</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2624765046687063</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4978461474863434</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.5335181202635673</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0.5375258190355451</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.939052969214116</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.4095860957928894</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.3805190569362209</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.3450286562826945</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.2709893414090532</v>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.4221133173730127</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.4401223678260494</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7568271220717737</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7727306514010199</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.6487154037450493</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6258131167883763</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0.6335738681733423</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9560219083273637</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0.7401259354725979</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.387078516316972</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.6109715664325708</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.8133021219626535</v>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.6968663579814329</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.7921169353593116</v>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.7568271220717737</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.7727306514010199</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.339863332927637</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3094625618079792</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.3771272720940486</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4950897936896539</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3292712568320135</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.4860419552432808</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0.3551868205374656</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.6729635261281783</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.3534690911446673</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.4768608981570735</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.3771272720940486</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.4950897936896539</v>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.3634631894501094</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.3397349351799635</v>
       </c>
     </row>
   </sheetData>
@@ -892,7 +1579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,60 +1680,75 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Animal ID_Event 8</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8_baseline</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>Animal ID_Event 9</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Event 9_baseline</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Event 9</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Group 1_baseline</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Group 1</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 2</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Group 2_baseline</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Group 2</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 3</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Group 3_baseline</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Group 3</t>
         </is>
@@ -1055,295 +1757,967 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55.86838621784899</v>
+        <v>63.91084034467485</v>
       </c>
       <c r="C2" t="n">
-        <v>62.11161551567513</v>
+        <v>51.80105962397856</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>34.01072822563779</v>
+        <v>67.01971087363083</v>
       </c>
       <c r="F2" t="n">
-        <v>30.03624317136339</v>
+        <v>53.8882001941376</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>75.01763197912129</v>
+        <v>78.71119906634179</v>
       </c>
       <c r="I2" t="n">
-        <v>93.18687683789227</v>
+        <v>81.9886467285875</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>51.05675168976313</v>
+        <v>52.18497199925042</v>
       </c>
       <c r="L2" t="n">
-        <v>50.53250429044137</v>
+        <v>84.23799510971435</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>35.85067658048381</v>
+        <v>40.37756916473677</v>
       </c>
       <c r="O2" t="n">
-        <v>69.75833440979449</v>
+        <v>149.5307280532137</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>109.0181751644851</v>
+        <v>73.63732903778384</v>
       </c>
       <c r="R2" t="n">
-        <v>124.9791325426042</v>
+        <v>84.79296095696458</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>88.36123012839354</v>
+        <v>84.12673588036141</v>
       </c>
       <c r="U2" t="n">
-        <v>81.21161579678775</v>
+        <v>89.47947644918642</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>109.0181751644851</v>
+        <v>59.17289021423358</v>
       </c>
       <c r="X2" t="n">
-        <v>124.9791325426042</v>
+        <v>82.59687342394133</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Z2" t="n">
-        <v>109.0181751644851</v>
+        <v>62.38612822067806</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.9791325426042</v>
+        <v>81.54493504181281</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>55.86838621784899</v>
+        <v>69.17322676259508</v>
       </c>
       <c r="AD2" t="n">
-        <v>62.11161551567513</v>
+        <v>80.55995586784425</v>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AF2" t="n">
+        <v>64.09371508167226</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>51.92383259869381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.47112469944229</v>
+        <v>41.94402073483977</v>
       </c>
       <c r="C3" t="n">
-        <v>31.48101959315099</v>
+        <v>38.28935649043602</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53.46942876414185</v>
+        <v>52.88041533469205</v>
       </c>
       <c r="F3" t="n">
-        <v>59.66279360541245</v>
+        <v>54.01787682410617</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>55.32871180086894</v>
+        <v>44.65603177435997</v>
       </c>
       <c r="I3" t="n">
-        <v>67.70627958620216</v>
+        <v>88.19947094352304</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>58.02397954960907</v>
+        <v>46.82171907120988</v>
       </c>
       <c r="L3" t="n">
-        <v>57.54064247505113</v>
+        <v>58.06842070683435</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>84.31213211403758</v>
+        <v>23.52260477647588</v>
       </c>
       <c r="O3" t="n">
-        <v>41.456115478901</v>
+        <v>134.7921176945803</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>53.83701306723913</v>
+        <v>28.4769669626523</v>
       </c>
       <c r="R3" t="n">
-        <v>55.95989194152556</v>
+        <v>39.61003485424669</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>53.83701306723913</v>
+        <v>56.88348823717167</v>
       </c>
       <c r="X3" t="n">
-        <v>55.95989194152556</v>
+        <v>69.60092647869782</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="Z3" t="n">
-        <v>53.83701306723913</v>
+        <v>49.90834465571649</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.95989194152556</v>
+        <v>58.11904526701503</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>33.4975270502393</v>
+        <v>46.03124421712596</v>
       </c>
       <c r="AD3" t="n">
-        <v>30.51783531195926</v>
+        <v>70.84756083885878</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="AF3" t="n">
+        <v>41.94402073483977</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>38.28935649043602</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.32950691163462</v>
+        <v>110.4717940459308</v>
       </c>
       <c r="C4" t="n">
-        <v>67.98533680779637</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>117.3355003920288</v>
-      </c>
-      <c r="R4" t="n">
-        <v>72.54520255257134</v>
+        <v>120.7506921574265</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>63.95524468128474</v>
+      </c>
+      <c r="F4" t="n">
+        <v>64.86227862385216</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>116.5553733957843</v>
+      </c>
+      <c r="I4" t="n">
+        <v>84.45676165438442</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>101.5599394686964</v>
+      </c>
+      <c r="L4" t="n">
+        <v>100.1582345993643</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>76.19109621048111</v>
+      </c>
+      <c r="O4" t="n">
+        <v>124.9812803575416</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>57.36060250435696</v>
+        <v>108.3458841458236</v>
       </c>
       <c r="X4" t="n">
-        <v>51.01872526685551</v>
+        <v>98.06434152503752</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Z4" t="n">
-        <v>77.45362615448482</v>
+        <v>108.0549803538903</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.42941049232098</v>
+        <v>100.3242916386808</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>53.77944178872397</v>
+        <v>112.9065074286251</v>
       </c>
       <c r="AD4" t="n">
-        <v>61.0498841391431</v>
+        <v>93.85670404996719</v>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="AF4" t="n">
+        <v>110.4717940459308</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>120.7506921574265</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>43.39646443186246</v>
+      </c>
+      <c r="C5" t="n">
+        <v>47.87559638011637</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>37.92420710598982</v>
+      </c>
+      <c r="F5" t="n">
+        <v>54.96462785198643</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>68.3513402472923</v>
+      </c>
+      <c r="I5" t="n">
+        <v>71.74156351700063</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>57.08778086560884</v>
+      </c>
+      <c r="L5" t="n">
+        <v>63.36633668835248</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>83.51479414790327</v>
+      </c>
+      <c r="O5" t="n">
+        <v>173.5584760256439</v>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>58.09597977428692</v>
+        <v>58.7084160809484</v>
       </c>
       <c r="X5" t="n">
-        <v>56.22056314152393</v>
+        <v>56.9984263830393</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>55.32871180086894</v>
+        <v>64.64665684354505</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.70627958620216</v>
+        <v>68.83747370631724</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>70.20342646724751</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>70.97863787723045</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AF5" t="n">
+        <v>46.95294602042356</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>50.17895154661255</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>48.40425671093863</v>
+      </c>
+      <c r="C6" t="n">
+        <v>57.70736221783</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>43.84936219728139</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40.98568586448455</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>53.90250682091761</v>
+      </c>
+      <c r="I6" t="n">
+        <v>54.66650258512468</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>59.53559243128281</v>
+      </c>
+      <c r="L6" t="n">
+        <v>67.35391808879325</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>54.71007886097404</v>
+      </c>
+      <c r="O6" t="n">
+        <v>136.9167484536062</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>67.95649842960592</v>
+      </c>
+      <c r="X6" t="n">
+        <v>60.68133880377938</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v>58.14963902646175</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>58.67574420171889</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v>57.87393524683738</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>56.78908853277687</v>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AF6" t="n">
+        <v>48.31975195325733</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>58.55464973625788</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>48.72899347243491</v>
+      </c>
+      <c r="C7" t="n">
+        <v>47.74429221003166</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>70.57692726380745</v>
+      </c>
+      <c r="F7" t="n">
+        <v>68.63516510620396</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>53.63142618265843</v>
+      </c>
+      <c r="I7" t="n">
+        <v>56.00912827629443</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>52.06624745423716</v>
+      </c>
+      <c r="L7" t="n">
+        <v>62.73574343185022</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>39.63120978483105</v>
+      </c>
+      <c r="O7" t="n">
+        <v>148.1840117903368</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>49.06142965891382</v>
+      </c>
+      <c r="X7" t="n">
+        <v>31.07693435510503</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
+        <v>53.61058096754894</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>56.19232941687281</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v>53.63142618265843</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>56.00912827629443</v>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF7" t="n">
+        <v>46.92819574469407</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>48.94768148369079</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>44.48753374018161</v>
+      </c>
+      <c r="C8" t="n">
+        <v>40.36323969556894</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>77.56055841303541</v>
+      </c>
+      <c r="I8" t="n">
+        <v>75.49750512366231</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>60.09788920041395</v>
+      </c>
+      <c r="L8" t="n">
+        <v>79.79388083769837</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>46.07408252635527</v>
+      </c>
+      <c r="O8" t="n">
+        <v>152.5867102416706</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="W8" t="n">
+        <v>27.20127599347519</v>
+      </c>
+      <c r="X8" t="n">
+        <v>38.19047877506823</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="Z8" t="n">
+        <v>75.38701457520125</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>74.25776902527738</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>77.56055841303541</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>75.49750512366231</v>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="AF8" t="n">
+        <v>44.00890508300645</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>40.83007432225564</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>68.32312179329429</v>
+      </c>
+      <c r="C9" t="n">
+        <v>71.2380607370403</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>51.69809743814913</v>
+      </c>
+      <c r="I9" t="n">
+        <v>42.48436014282628</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>80.58121260119822</v>
+      </c>
+      <c r="L9" t="n">
+        <v>86.35506630435353</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>87.00375110068445</v>
+      </c>
+      <c r="O9" t="n">
+        <v>151.9948026877216</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
+        <v>66.2954698559497</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>61.59068857036037</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>55.84622407103035</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>43.86224507911977</v>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AF9" t="n">
+        <v>68.32312179329429</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>71.2380607370403</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>53.4124238708019</v>
+      </c>
+      <c r="C10" t="n">
+        <v>54.53480178882646</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>45.78253223998887</v>
+      </c>
+      <c r="I10" t="n">
+        <v>44.16622301577406</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>44.71393137669403</v>
+      </c>
+      <c r="L10" t="n">
+        <v>67.47042476169543</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>52.23375197630294</v>
+      </c>
+      <c r="O10" t="n">
+        <v>97.89187450470237</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="Z10" t="n">
+        <v>43.11879335134276</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>57.39809846451593</v>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
+        <v>49.18074446369589</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>55.90297212239678</v>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AF10" t="n">
+        <v>53.4124238708019</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>54.53480178882646</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>58.83186066898811</v>
+      </c>
+      <c r="C11" t="n">
+        <v>53.56935142642055</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>65.2824149495311</v>
+      </c>
+      <c r="I11" t="n">
+        <v>85.70225422696441</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>56.99832499544216</v>
+      </c>
+      <c r="L11" t="n">
+        <v>84.13603298665815</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>61.48442480486783</v>
+      </c>
+      <c r="O11" t="n">
+        <v>116.4929916488335</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
+        <v>61.18707817605202</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>82.54675100487762</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v>65.2824149495311</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>85.70225422696441</v>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF11" t="n">
+        <v>62.91710122370787</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>58.80963444547564</v>
       </c>
     </row>
   </sheetData>
@@ -1357,7 +2731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,60 +2832,75 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Animal ID_Event 8</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8_baseline</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>Animal ID_Event 9</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Event 9_baseline</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Event 9</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Group 1_baseline</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Group 1</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 2</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Group 2_baseline</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Group 2</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 3</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Group 3_baseline</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Group 3</t>
         </is>
@@ -1520,307 +2909,404 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.18308030296643</v>
+        <v>53.57856478363858</v>
       </c>
       <c r="C2" t="n">
-        <v>71.51055386252553</v>
+        <v>32.591643067539</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>44.7822121353193</v>
+        <v>75.70051941199067</v>
       </c>
       <c r="F2" t="n">
-        <v>78.23012352818071</v>
+        <v>17.74006640456463</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>300.3179114057201</v>
+        <v>158.8942609744362</v>
       </c>
       <c r="I2" t="n">
-        <v>453.2240825983357</v>
+        <v>182.2157688357966</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>98.67131068407647</v>
+        <v>29.85981745179716</v>
       </c>
       <c r="L2" t="n">
-        <v>94.25942327702877</v>
+        <v>198.2215762076963</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>29.29783398320014</v>
+        <v>113.878378968254</v>
       </c>
       <c r="O2" t="n">
-        <v>256.0574558535353</v>
+        <v>662.8285330700228</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>219.7999819620323</v>
+        <v>122.7898553658795</v>
       </c>
       <c r="R2" t="n">
-        <v>321.8810888954135</v>
+        <v>202.1705760707679</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>412.6130848594014</v>
+        <v>197.4298830185438</v>
       </c>
       <c r="U2" t="n">
-        <v>352.4443678077428</v>
+        <v>235.5186624958458</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>219.7999819620323</v>
+        <v>19.86448218007151</v>
       </c>
       <c r="X2" t="n">
-        <v>321.8810888954135</v>
+        <v>186.5437597357227</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Z2" t="n">
-        <v>219.7999819620323</v>
+        <v>42.72908999393653</v>
       </c>
       <c r="AA2" t="n">
-        <v>321.8810888954135</v>
+        <v>179.0584260929981</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>21.18308030296643</v>
+        <v>91.02440644536321</v>
       </c>
       <c r="AD2" t="n">
-        <v>71.51055386252553</v>
+        <v>172.0495576330684</v>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AF2" t="n">
+        <v>54.87985623236518</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>31.71802091089345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.73899059117024</v>
+        <v>19.30393368360522</v>
       </c>
       <c r="C3" t="n">
-        <v>66.0713776583288</v>
+        <v>4.765635291574196</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.52471626772124</v>
+        <v>2.477377476239663</v>
       </c>
       <c r="F3" t="n">
-        <v>19.24835687638281</v>
+        <v>9.827550834926363</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>11.38379296542954</v>
+        <v>37.16520148054052</v>
       </c>
       <c r="I3" t="n">
-        <v>76.09759944392567</v>
+        <v>323.9416992405127</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>7.665650323033733</v>
+        <v>51.42838854348877</v>
       </c>
       <c r="L3" t="n">
-        <v>4.249551052262944</v>
+        <v>125.4990124527698</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>193.4633958971538</v>
+        <v>102.0192611103533</v>
       </c>
       <c r="O3" t="n">
-        <v>109.4316537104704</v>
+        <v>630.8002366363902</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>4.807920325658928</v>
+        <v>155.215500703436</v>
       </c>
       <c r="R3" t="n">
-        <v>21.92071969905333</v>
+        <v>83.27462201980144</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>4.807920325658928</v>
+        <v>117.6950633340106</v>
       </c>
       <c r="X3" t="n">
-        <v>21.92071969905333</v>
+        <v>201.4519385136452</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="Z3" t="n">
-        <v>4.807920325658928</v>
+        <v>71.7568626353561</v>
       </c>
       <c r="AA3" t="n">
-        <v>21.92071969905333</v>
+        <v>125.8324251171405</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>49.10113828726961</v>
+        <v>46.22233191252673</v>
       </c>
       <c r="AD3" t="n">
-        <v>74.17720823823007</v>
+        <v>209.6622554434891</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="AF3" t="n">
+        <v>19.30393368360522</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4.765635291574196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.37817333174154</v>
+        <v>64.15241968112346</v>
       </c>
       <c r="C4" t="n">
-        <v>78.06990246260716</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>656.4506666383618</v>
-      </c>
-      <c r="R4" t="n">
-        <v>279.5107881545185</v>
-      </c>
+        <v>120.6669307733442</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>100.8026269147068</v>
+      </c>
+      <c r="F4" t="n">
+        <v>106.7848146377993</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>97.60060730963926</v>
+      </c>
+      <c r="I4" t="n">
+        <v>78.88108650883005</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>15.1540641283916</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.447336760670199</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>124.3266232139395</v>
+      </c>
+      <c r="O4" t="n">
+        <v>143.9271694845957</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>151.7223702807379</v>
+        <v>52.46393349053653</v>
       </c>
       <c r="X4" t="n">
-        <v>98.35129327134685</v>
+        <v>4.065117404297387</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Z4" t="n">
-        <v>320.8184080029985</v>
+        <v>50.86451248279262</v>
       </c>
       <c r="AA4" t="n">
-        <v>337.4459354841433</v>
+        <v>8.360336606431762</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>22.33362577839129</v>
+        <v>77.53874134519067</v>
       </c>
       <c r="AD4" t="n">
-        <v>29.05194780742021</v>
+        <v>27.19917050780676</v>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="AF4" t="n">
+        <v>64.15241968112346</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>120.6669307733442</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>58.80705624729342</v>
+      </c>
+      <c r="C5" t="n">
+        <v>29.86331035128428</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>69.625032363855</v>
+      </c>
+      <c r="F5" t="n">
+        <v>70.63298968711047</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>102.4490962422159</v>
+      </c>
+      <c r="I5" t="n">
+        <v>124.3564126559301</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>29.66499334139747</v>
+      </c>
+      <c r="L5" t="n">
+        <v>70.23645371068667</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>200.4339651131193</v>
+      </c>
+      <c r="O5" t="n">
+        <v>782.2881006731084</v>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -1829,29 +3315,634 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>8.174528966870975</v>
+        <v>40.13739165536051</v>
       </c>
       <c r="X5" t="n">
-        <v>5.080422347245695</v>
+        <v>29.08759274948801</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>11.38379296542954</v>
+        <v>78.50976685831085</v>
       </c>
       <c r="AA5" t="n">
-        <v>76.09759944392567</v>
-      </c>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
+        <v>105.5904467253271</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>114.4171100330981</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>119.4264561129742</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AF5" t="n">
+        <v>35.82539360096852</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>14.9792374064553</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.761262871862508</v>
+      </c>
+      <c r="C6" t="n">
+        <v>59.59578336218436</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>18.09674607268667</v>
+      </c>
+      <c r="F6" t="n">
+        <v>39.26939986725189</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>34.50150830217538</v>
+      </c>
+      <c r="I6" t="n">
+        <v>39.54031210724292</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>71.65356403017854</v>
+      </c>
+      <c r="L6" t="n">
+        <v>123.2179979157616</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>39.82771200505296</v>
+      </c>
+      <c r="O6" t="n">
+        <v>582.0077854445922</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>127.1922138164177</v>
+      </c>
+      <c r="X6" t="n">
+        <v>79.21013888549838</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v>62.51274464735552</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>65.98258163225387</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v>60.69438737506806</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>53.53946583385179</v>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AF6" t="n">
+        <v>2.318599593477391</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>65.18392373135464</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>19.30809828063688</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.20311933472588</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>90.2807638750896</v>
+      </c>
+      <c r="F7" t="n">
+        <v>76.25009890822319</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>59.65953827283587</v>
+      </c>
+      <c r="I7" t="n">
+        <v>79.23016963522025</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>46.77670657067928</v>
+      </c>
+      <c r="L7" t="n">
+        <v>134.5962753716619</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>55.57486171732228</v>
+      </c>
+      <c r="O7" t="n">
+        <v>837.9125423985238</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>29.61384519981851</v>
+      </c>
+      <c r="X7" t="n">
+        <v>142.9938984463605</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
+        <v>59.487963363738</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>80.73808014975609</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v>59.65953827283587</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>79.23016963522025</v>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF7" t="n">
+        <v>4.48590983988823</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>21.10809772678998</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>13.37841076899919</v>
+      </c>
+      <c r="C8" t="n">
+        <v>43.87146927337527</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>231.1477227600457</v>
+      </c>
+      <c r="I8" t="n">
+        <v>215.8944930024164</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>102.0370948118291</v>
+      </c>
+      <c r="L8" t="n">
+        <v>247.6598411050843</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>1.64822751011283</v>
+      </c>
+      <c r="O8" t="n">
+        <v>785.8552223519241</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="W8" t="n">
+        <v>129.4075270179983</v>
+      </c>
+      <c r="X8" t="n">
+        <v>46.90823470533737</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="Z8" t="n">
+        <v>215.0775787082465</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>206.7284769596419</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>231.1477227600457</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>215.8944930024164</v>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="AF8" t="n">
+        <v>16.9171622467648</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>40.41991721878274</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.81806839700326</v>
+      </c>
+      <c r="C9" t="n">
+        <v>110.1947827317307</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>12.99144194895669</v>
+      </c>
+      <c r="I9" t="n">
+        <v>71.07781065134196</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>169.0970225752034</v>
+      </c>
+      <c r="L9" t="n">
+        <v>205.4972567348381</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>209.5867747060568</v>
+      </c>
+      <c r="O9" t="n">
+        <v>619.3113049199501</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
+        <v>79.03509724668709</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>49.37464007720055</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>13.15968492808539</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>62.39118003950165</v>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AF9" t="n">
+        <v>91.81806839700326</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>110.1947827317307</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>67.36754334506658</v>
+      </c>
+      <c r="C10" t="n">
+        <v>75.79357622340063</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10.08762300191677</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.046502630881726</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>2.065310852559747</v>
+      </c>
+      <c r="L10" t="n">
+        <v>172.9052377419794</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>58.51889443962781</v>
+      </c>
+      <c r="O10" t="n">
+        <v>401.288326561406</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="Z10" t="n">
+        <v>9.909876142162293</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>97.2892164550328</v>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
+        <v>35.59903717416682</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>86.06484762734561</v>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AF10" t="n">
+        <v>67.36754334506658</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>75.79357622340063</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.413987704711641</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32.6115262741129</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>52.02400407900674</v>
+      </c>
+      <c r="I11" t="n">
+        <v>199.5724164615663</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>7.834661023756556</v>
+      </c>
+      <c r="L11" t="n">
+        <v>188.255311840551</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>24.58072166742686</v>
+      </c>
+      <c r="O11" t="n">
+        <v>422.0582235710187</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
+        <v>22.4321727776438</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>176.7715763393084</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v>52.02400407900674</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>199.5724164615663</v>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF11" t="n">
+        <v>34.9328663726692</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>5.253386832786614</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
